--- a/Defects/Defect 001.xlsx
+++ b/Defects/Defect 001.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Class12Capstone\Defects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F42792-64B3-45C8-9DBE-013E9CF0C8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54BCED2-97AA-4730-B0AD-EEAEC8D16408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70E5333C-26B5-49AF-810D-D2B02E27DB29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71975A53-72A4-4BC1-A605-3C9F37236C0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bug1" sheetId="1" r:id="rId1"/>
+    <sheet name="Defect1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,46 +35,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
-    <t>Version 2.0 of Petclinic</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Assigned to</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Bug tracking</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>No message shown, Error message saying that the server returned the code "400 with body"</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website will take you to page showing that your new owner has been added to the system. </t>
-  </si>
-  <si>
-    <t>Expected result</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>ID number</t>
+  </si>
+  <si>
+    <t>#001</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_OWNER_ADD_01 (2.0) - Webpage should allow for 30 character limit on first name </t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Christopher Wise</t>
+  </si>
+  <si>
+    <t>Submit Date</t>
+  </si>
+  <si>
+    <t>Bug overview</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Entering username with longer than 24 characters page generates a 400 error code</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://clinic.doveryai-no-proveryai.com/petclinic/owners/add</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows HP </t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Windows 10 Home</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Version 80.0.3987.149 (Official Build) (64-bit</t>
+  </si>
+  <si>
+    <t>Bug details</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
   </si>
   <si>
     <t>1. Navigate to the url above
@@ -83,82 +119,46 @@
 4. Get error above</t>
   </si>
   <si>
-    <t>Steps to reproduce</t>
-  </si>
-  <si>
-    <t>Bug details</t>
-  </si>
-  <si>
-    <t>Version 80.0.3987.149 (Official Build) (64-bit</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Windows 10 Home</t>
-  </si>
-  <si>
-    <t>Operating System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows HP </t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>https://clinic.doveryai-no-proveryai.com/petclinic/owners/add</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Entering username with longer than 25 characters page generates a 400 error code</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Bug overview</t>
-  </si>
-  <si>
-    <t>Submit Date</t>
-  </si>
-  <si>
-    <t>Christopher Wise</t>
-  </si>
-  <si>
-    <t>Reporter</t>
-  </si>
-  <si>
-    <t>TC_OwnerAdd_01 - Entering first name with longer than 25 characters page generates a 400 error code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>#001</t>
-  </si>
-  <si>
-    <t>ID number</t>
-  </si>
-  <si>
-    <t>Bug ID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website will take you to page showing that your new owner has been added to the system. </t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>No message shown, Error message saying that the server returned the code "400 with body"</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Bug tracking</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Version 2.0 of Petclinic</t>
   </si>
 </sst>
 </file>
@@ -177,8 +177,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -190,20 +204,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF5F6368"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -246,10 +246,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -270,49 +270,49 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D27E462F-3DBF-4B22-8A79-1409BBA204A7}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1C7E8607-B3E3-422C-8511-D802D150DA12}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,7 +342,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99E6624-EAC4-4576-B636-44D74610707D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0336FAFD-951F-4FFB-84DD-2F758429FF23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -363,7 +363,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="1272541"/>
+          <a:off x="3695700" y="1272541"/>
           <a:ext cx="6210300" cy="3268979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -672,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6B891-C8B8-4BF7-9428-E5492329E09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BF5F27-4638-46BB-9E1A-FE9DAD81B4D5}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,196 +687,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>38</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
+      <c r="A4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="9">
         <v>43925</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
+      <c r="A17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{0E1EF790-DB54-46CD-BD68-65D071B1F390}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{C6EE1FD0-5F20-46EB-AF2C-AFFC6FC90986}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
